--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Tufail Ahmed\Documents\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0D666-CC28-41B1-9C74-79D73C1A7479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7610D1F-8977-4E88-A5A0-FBD40D8F3BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3448,8 +3448,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31316,21 +31316,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{7AAF7DDA-7725-440F-B807-417C331ECF84}"/>
+      <autoFilter ref="A11:C37" xr:uid="{6544EE60-0EFD-4FD1-BC98-5A6F5A926E2B}"/>
+    </customSheetView>
+    <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{BA9BE75E-BB3A-4794-9B60-D8AEC77772B2}"/>
     </customSheetView>
     <customSheetView guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{06FAAECD-2F9B-4FFE-B7CF-F1A99F063766}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C9FA3156-CDF1-42C4-84F6-12166721F62E}"/>
     </customSheetView>
-    <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{569032E4-6D19-4622-8135-9EC61CB80756}"/>
-    </customSheetView>
-    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{27146E43-87F9-4997-9A17-13D1A1B9B4AB}"/>
+      <autoFilter ref="A293:C332" xr:uid="{33EB30CD-9D47-43E5-B760-D9B6DF14BE67}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31727,8 +31727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="J13:N425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G233" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170"/>
+    <sheetView topLeftCell="I109" zoomScale="102" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -36058,270 +36058,270 @@
     <hyperlink ref="L149" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
     <hyperlink ref="L150" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
     <hyperlink ref="L151" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="L152" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="L153" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="L154" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="L155" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="L156" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="L157" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="L158" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="L161" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="L162" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="L163" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="L164" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="L165" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="L166" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="L167" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="L168" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="L169" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="L170" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="L171" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="L172" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="L173" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="L174" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="L175" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="L176" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="L177" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="L178" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="L179" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="L180" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="L181" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="L182" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="L183" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
-    <hyperlink ref="L184" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
-    <hyperlink ref="L185" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
-    <hyperlink ref="L186" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
-    <hyperlink ref="L187" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
-    <hyperlink ref="L190" r:id="rId153" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
-    <hyperlink ref="L191" r:id="rId154" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
-    <hyperlink ref="L192" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
-    <hyperlink ref="L193" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
-    <hyperlink ref="L194" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
-    <hyperlink ref="L195" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
-    <hyperlink ref="L196" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
-    <hyperlink ref="L197" r:id="rId160" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
-    <hyperlink ref="L198" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
-    <hyperlink ref="L199" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
-    <hyperlink ref="L200" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
-    <hyperlink ref="L201" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="L202" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="L203" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="L204" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="L205" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
-    <hyperlink ref="L206" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
-    <hyperlink ref="L207" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
-    <hyperlink ref="L208" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
-    <hyperlink ref="L209" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
-    <hyperlink ref="L210" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
-    <hyperlink ref="L211" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
-    <hyperlink ref="L214" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
-    <hyperlink ref="L215" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
-    <hyperlink ref="L216" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
-    <hyperlink ref="L217" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
-    <hyperlink ref="L218" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
-    <hyperlink ref="L219" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
-    <hyperlink ref="L220" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
-    <hyperlink ref="L221" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
-    <hyperlink ref="L222" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
-    <hyperlink ref="L223" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
-    <hyperlink ref="L224" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
-    <hyperlink ref="L225" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
-    <hyperlink ref="L226" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
-    <hyperlink ref="L227" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
-    <hyperlink ref="L228" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
-    <hyperlink ref="L229" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
-    <hyperlink ref="L230" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
-    <hyperlink ref="L231" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
-    <hyperlink ref="L232" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
-    <hyperlink ref="L233" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
-    <hyperlink ref="L234" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
-    <hyperlink ref="L235" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
-    <hyperlink ref="L236" r:id="rId197" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
-    <hyperlink ref="L237" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
-    <hyperlink ref="L238" r:id="rId199" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
-    <hyperlink ref="L239" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
-    <hyperlink ref="L240" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
-    <hyperlink ref="L241" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
-    <hyperlink ref="L242" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
-    <hyperlink ref="L243" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
-    <hyperlink ref="L244" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
-    <hyperlink ref="L245" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="L246" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
-    <hyperlink ref="L249" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
-    <hyperlink ref="L250" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
-    <hyperlink ref="L251" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
-    <hyperlink ref="L252" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
-    <hyperlink ref="L253" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="L254" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
-    <hyperlink ref="L255" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="L256" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="L257" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="L258" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="L259" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
-    <hyperlink ref="L260" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="L261" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
-    <hyperlink ref="L262" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
-    <hyperlink ref="L263" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="L264" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="L265" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
-    <hyperlink ref="L266" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
-    <hyperlink ref="L267" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
-    <hyperlink ref="L268" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="L269" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
-    <hyperlink ref="L272" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
-    <hyperlink ref="L273" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
-    <hyperlink ref="L274" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
-    <hyperlink ref="L275" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
-    <hyperlink ref="L276" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
-    <hyperlink ref="L277" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
-    <hyperlink ref="L278" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
-    <hyperlink ref="L279" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
-    <hyperlink ref="L280" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
-    <hyperlink ref="L281" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
-    <hyperlink ref="L282" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
-    <hyperlink ref="L283" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
-    <hyperlink ref="L284" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
-    <hyperlink ref="L285" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
-    <hyperlink ref="L286" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
-    <hyperlink ref="L287" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
-    <hyperlink ref="L288" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
-    <hyperlink ref="L289" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
-    <hyperlink ref="L290" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
-    <hyperlink ref="L291" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
-    <hyperlink ref="L292" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
-    <hyperlink ref="L293" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
-    <hyperlink ref="L294" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
-    <hyperlink ref="L295" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
-    <hyperlink ref="L296" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
-    <hyperlink ref="L297" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
-    <hyperlink ref="L298" r:id="rId255" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
-    <hyperlink ref="L299" r:id="rId256" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
-    <hyperlink ref="L302" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
-    <hyperlink ref="L303" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
-    <hyperlink ref="L304" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
-    <hyperlink ref="L305" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
-    <hyperlink ref="L306" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
-    <hyperlink ref="L307" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
-    <hyperlink ref="L308" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
-    <hyperlink ref="L309" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
-    <hyperlink ref="L310" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
-    <hyperlink ref="L311" r:id="rId266" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
-    <hyperlink ref="L312" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
-    <hyperlink ref="L313" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
-    <hyperlink ref="L314" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
-    <hyperlink ref="L315" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
-    <hyperlink ref="L316" r:id="rId271" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
-    <hyperlink ref="L317" r:id="rId272" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
-    <hyperlink ref="L318" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
-    <hyperlink ref="L319" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
-    <hyperlink ref="L320" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
-    <hyperlink ref="L321" r:id="rId276" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0100-000013010000}"/>
-    <hyperlink ref="L322" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
-    <hyperlink ref="L323" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
-    <hyperlink ref="L324" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
-    <hyperlink ref="L325" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
-    <hyperlink ref="L326" r:id="rId281" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
-    <hyperlink ref="L327" r:id="rId282" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
-    <hyperlink ref="L328" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
-    <hyperlink ref="L329" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
-    <hyperlink ref="L330" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
-    <hyperlink ref="L331" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
-    <hyperlink ref="L332" r:id="rId287" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
-    <hyperlink ref="L333" r:id="rId288" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
-    <hyperlink ref="L334" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
-    <hyperlink ref="L335" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
-    <hyperlink ref="L336" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
-    <hyperlink ref="L337" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
-    <hyperlink ref="L338" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
-    <hyperlink ref="L339" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
-    <hyperlink ref="L340" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
-    <hyperlink ref="L341" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
-    <hyperlink ref="L344" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
-    <hyperlink ref="L345" r:id="rId298" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
-    <hyperlink ref="L346" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
-    <hyperlink ref="L347" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
-    <hyperlink ref="L348" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
-    <hyperlink ref="L349" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
-    <hyperlink ref="L352" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
-    <hyperlink ref="L353" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
-    <hyperlink ref="L354" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
-    <hyperlink ref="L355" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
-    <hyperlink ref="L356" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
-    <hyperlink ref="L357" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
-    <hyperlink ref="L358" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
-    <hyperlink ref="L359" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
-    <hyperlink ref="L360" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
-    <hyperlink ref="L361" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
-    <hyperlink ref="L362" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
-    <hyperlink ref="L363" r:id="rId314" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="L364" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
-    <hyperlink ref="L365" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="L366" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
-    <hyperlink ref="L367" r:id="rId318" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
-    <hyperlink ref="L368" r:id="rId319" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
-    <hyperlink ref="L369" r:id="rId320" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
-    <hyperlink ref="L370" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
-    <hyperlink ref="L371" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
-    <hyperlink ref="L372" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
-    <hyperlink ref="L373" r:id="rId324" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
-    <hyperlink ref="L374" r:id="rId325" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
-    <hyperlink ref="L375" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
-    <hyperlink ref="L376" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
-    <hyperlink ref="L377" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
-    <hyperlink ref="L378" r:id="rId329" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
-    <hyperlink ref="L379" r:id="rId330" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
-    <hyperlink ref="L380" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
-    <hyperlink ref="L381" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
-    <hyperlink ref="L382" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
-    <hyperlink ref="L383" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
-    <hyperlink ref="L384" r:id="rId335" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
-    <hyperlink ref="L385" r:id="rId336" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
-    <hyperlink ref="L386" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
-    <hyperlink ref="L387" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
-    <hyperlink ref="L388" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
-    <hyperlink ref="L389" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
-    <hyperlink ref="L390" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
-    <hyperlink ref="L391" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
-    <hyperlink ref="L392" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
-    <hyperlink ref="L393" r:id="rId344" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
-    <hyperlink ref="L394" r:id="rId345" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
-    <hyperlink ref="L395" r:id="rId346" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
-    <hyperlink ref="L396" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
-    <hyperlink ref="L397" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
-    <hyperlink ref="L398" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
-    <hyperlink ref="L399" r:id="rId350" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
-    <hyperlink ref="L400" r:id="rId351" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
-    <hyperlink ref="L401" r:id="rId352" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
-    <hyperlink ref="L402" r:id="rId353" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
-    <hyperlink ref="L403" r:id="rId354" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
-    <hyperlink ref="L404" r:id="rId355" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
-    <hyperlink ref="L405" r:id="rId356" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
-    <hyperlink ref="L408" r:id="rId357" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
-    <hyperlink ref="L409" r:id="rId358" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
-    <hyperlink ref="L410" r:id="rId359" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
-    <hyperlink ref="L411" r:id="rId360" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
-    <hyperlink ref="L412" r:id="rId361" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
-    <hyperlink ref="L413" r:id="rId362" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
-    <hyperlink ref="L414" r:id="rId363" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
-    <hyperlink ref="L415" r:id="rId364" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
-    <hyperlink ref="L416" r:id="rId365" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
-    <hyperlink ref="L417" r:id="rId366" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
-    <hyperlink ref="L420" r:id="rId367" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
-    <hyperlink ref="L421" r:id="rId368" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
-    <hyperlink ref="L422" r:id="rId369" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
-    <hyperlink ref="L423" r:id="rId370" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
-    <hyperlink ref="L424" r:id="rId371" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
-    <hyperlink ref="L425" r:id="rId372" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
-    <hyperlink ref="L19" r:id="rId373" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
-    <hyperlink ref="L40" r:id="rId374" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
-    <hyperlink ref="L112" r:id="rId375" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
-    <hyperlink ref="L111" r:id="rId376" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
-    <hyperlink ref="L110" r:id="rId377" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
-    <hyperlink ref="L41" r:id="rId378" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
-    <hyperlink ref="L106" r:id="rId379" tooltip="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
-    <hyperlink ref="L107" r:id="rId380" tooltip="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
-    <hyperlink ref="L108" r:id="rId381" tooltip="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
-    <hyperlink ref="L109" r:id="rId382" tooltip="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
+    <hyperlink ref="L153" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="L154" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="L155" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="L156" r:id="rId122" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="L157" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="L158" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="L161" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="L162" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="L163" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="L164" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="L165" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="L166" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="L167" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="L168" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="L169" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="L170" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="L171" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="L172" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="L173" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="L174" r:id="rId138" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="L175" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="L176" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="L177" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="L178" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="L179" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="L180" r:id="rId144" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="L181" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="L182" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="L183" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="L184" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="L185" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="L186" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="L187" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="L190" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="L191" r:id="rId153" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="L192" r:id="rId154" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="L193" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="L194" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="L195" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="L196" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="L197" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="L198" r:id="rId160" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="L199" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="L200" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="L201" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="L202" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="L203" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="L204" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="L205" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="L206" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="L207" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="L208" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="L209" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="L210" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="L211" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="L214" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="L215" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="L216" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="L217" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="L218" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="L219" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="L220" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="L221" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="L222" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="L223" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="L224" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="L225" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="L226" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="L227" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="L228" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="L229" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="L230" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="L231" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="L232" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="L233" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="L234" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="L235" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="L236" r:id="rId196" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="L237" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="L238" r:id="rId198" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="L239" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="L240" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="L241" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="L242" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="L243" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="L244" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="L245" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="L246" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="L249" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="L250" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="L251" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="L252" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="L253" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="L254" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="L255" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="L256" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="L257" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="L258" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="L259" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="L260" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="L261" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="L262" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="L263" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="L264" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="L265" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="L266" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="L267" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="L268" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="L269" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="L272" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="L273" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="L274" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="L275" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="L276" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="L277" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="L278" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="L279" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="L280" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="L281" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="L282" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="L283" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="L284" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="L285" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="L286" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="L287" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="L288" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="L289" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="L290" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="L291" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="L292" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="L293" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="L294" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="L295" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="L296" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="L297" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="L298" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="L299" r:id="rId255" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="L302" r:id="rId256" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="L303" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="L304" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="L305" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="L306" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="L307" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="L308" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="L309" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="L310" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="L311" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="L312" r:id="rId266" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="L313" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="L314" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="L315" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="L316" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="L317" r:id="rId271" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="L318" r:id="rId272" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="L319" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="L320" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="L321" r:id="rId275" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="L322" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="L323" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="L324" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="L325" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="L326" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="L327" r:id="rId281" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="L328" r:id="rId282" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="L329" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="L330" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="L331" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="L332" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="L333" r:id="rId287" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="L334" r:id="rId288" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="L335" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="L336" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="L337" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="L338" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="L339" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="L340" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="L341" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="L344" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="L345" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="L346" r:id="rId298" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="L347" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="L348" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="L349" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="L352" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="L353" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="L354" r:id="rId304" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="L355" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="L356" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="L357" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="L358" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="L359" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="L360" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="L361" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="L362" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="L363" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="L364" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="L365" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="L366" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="L367" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="L368" r:id="rId318" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="L369" r:id="rId319" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="L370" r:id="rId320" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="L371" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="L372" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="L373" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="L374" r:id="rId324" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="L375" r:id="rId325" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="L376" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="L377" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="L378" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="L379" r:id="rId329" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="L380" r:id="rId330" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="L381" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="L382" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="L383" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="L384" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="L385" r:id="rId335" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="L386" r:id="rId336" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="L387" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="L388" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="L389" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="L390" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="L391" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="L392" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="L393" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="L394" r:id="rId344" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
+    <hyperlink ref="L395" r:id="rId345" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
+    <hyperlink ref="L396" r:id="rId346" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
+    <hyperlink ref="L397" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
+    <hyperlink ref="L398" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="L399" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="L400" r:id="rId350" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
+    <hyperlink ref="L401" r:id="rId351" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
+    <hyperlink ref="L402" r:id="rId352" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
+    <hyperlink ref="L403" r:id="rId353" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
+    <hyperlink ref="L404" r:id="rId354" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
+    <hyperlink ref="L405" r:id="rId355" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
+    <hyperlink ref="L408" r:id="rId356" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
+    <hyperlink ref="L409" r:id="rId357" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
+    <hyperlink ref="L410" r:id="rId358" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
+    <hyperlink ref="L411" r:id="rId359" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
+    <hyperlink ref="L412" r:id="rId360" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
+    <hyperlink ref="L413" r:id="rId361" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
+    <hyperlink ref="L414" r:id="rId362" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
+    <hyperlink ref="L415" r:id="rId363" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
+    <hyperlink ref="L416" r:id="rId364" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
+    <hyperlink ref="L417" r:id="rId365" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
+    <hyperlink ref="L420" r:id="rId366" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
+    <hyperlink ref="L421" r:id="rId367" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
+    <hyperlink ref="L422" r:id="rId368" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
+    <hyperlink ref="L423" r:id="rId369" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
+    <hyperlink ref="L424" r:id="rId370" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
+    <hyperlink ref="L425" r:id="rId371" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
+    <hyperlink ref="L19" r:id="rId372" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
+    <hyperlink ref="L40" r:id="rId373" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
+    <hyperlink ref="L112" r:id="rId374" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
+    <hyperlink ref="L111" r:id="rId375" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
+    <hyperlink ref="L110" r:id="rId376" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
+    <hyperlink ref="L41" r:id="rId377" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
+    <hyperlink ref="L106" r:id="rId378" tooltip="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
+    <hyperlink ref="L107" r:id="rId379" tooltip="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
+    <hyperlink ref="L108" r:id="rId380" tooltip="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
+    <hyperlink ref="L109" r:id="rId381" tooltip="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
+    <hyperlink ref="L152" r:id="rId382" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
